--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2652,28 +2652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1128.827902996338</v>
+        <v>1222.387579128422</v>
       </c>
       <c r="AB2" t="n">
-        <v>1544.512137251936</v>
+        <v>1672.524613697456</v>
       </c>
       <c r="AC2" t="n">
-        <v>1397.10606660901</v>
+        <v>1512.901211969208</v>
       </c>
       <c r="AD2" t="n">
-        <v>1128827.902996338</v>
+        <v>1222387.579128422</v>
       </c>
       <c r="AE2" t="n">
-        <v>1544512.137251936</v>
+        <v>1672524.613697456</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.266977075998844e-06</v>
+        <v>2.141887609565415e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.99175347222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1397106.06660901</v>
+        <v>1512901.211969208</v>
       </c>
     </row>
     <row r="3">
@@ -2758,28 +2758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>551.8721284662313</v>
+        <v>603.8592981431149</v>
       </c>
       <c r="AB3" t="n">
-        <v>755.0957930474898</v>
+        <v>826.2269321114601</v>
       </c>
       <c r="AC3" t="n">
-        <v>683.0305103426382</v>
+        <v>747.3729933275239</v>
       </c>
       <c r="AD3" t="n">
-        <v>551872.1284662313</v>
+        <v>603859.2981431149</v>
       </c>
       <c r="AE3" t="n">
-        <v>755095.7930474898</v>
+        <v>826226.9321114601</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.988042953518304e-06</v>
+        <v>3.360885252061635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.19097222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>683030.5103426382</v>
+        <v>747372.9933275239</v>
       </c>
     </row>
     <row r="4">
@@ -2864,28 +2864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>438.4663640067001</v>
+        <v>490.4534441750326</v>
       </c>
       <c r="AB4" t="n">
-        <v>599.9290230047332</v>
+        <v>671.0600395991549</v>
       </c>
       <c r="AC4" t="n">
-        <v>542.6726390548328</v>
+        <v>607.0150112584918</v>
       </c>
       <c r="AD4" t="n">
-        <v>438466.3640067001</v>
+        <v>490453.4441750327</v>
       </c>
       <c r="AE4" t="n">
-        <v>599929.0230047331</v>
+        <v>671060.039599155</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.262445726278849e-06</v>
+        <v>3.824776754236488e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.956163194444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>542672.6390548327</v>
+        <v>607015.0112584918</v>
       </c>
     </row>
     <row r="5">
@@ -2970,28 +2970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>397.1199211426336</v>
+        <v>438.6926066149363</v>
       </c>
       <c r="AB5" t="n">
-        <v>543.3569958017952</v>
+        <v>600.2385781224414</v>
       </c>
       <c r="AC5" t="n">
-        <v>491.4997667288043</v>
+        <v>542.9526506665703</v>
       </c>
       <c r="AD5" t="n">
-        <v>397119.9211426337</v>
+        <v>438692.6066149363</v>
       </c>
       <c r="AE5" t="n">
-        <v>543356.9958017952</v>
+        <v>600238.5781224414</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.403148338919251e-06</v>
+        <v>4.06264150203421e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.430989583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>491499.7667288043</v>
+        <v>542952.6506665703</v>
       </c>
     </row>
     <row r="6">
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>368.2694238138731</v>
+        <v>409.8421092861759</v>
       </c>
       <c r="AB6" t="n">
-        <v>503.8824725624722</v>
+        <v>560.7640548831184</v>
       </c>
       <c r="AC6" t="n">
-        <v>455.792636584601</v>
+        <v>507.245520522367</v>
       </c>
       <c r="AD6" t="n">
-        <v>368269.4238138731</v>
+        <v>409842.1092861759</v>
       </c>
       <c r="AE6" t="n">
-        <v>503882.4725624722</v>
+        <v>560764.0548831185</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.498381693194772e-06</v>
+        <v>4.223638212554233e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.109809027777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>455792.636584601</v>
+        <v>507245.520522367</v>
       </c>
     </row>
     <row r="7">
@@ -3182,28 +3182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>333.9379843399713</v>
+        <v>375.5959211582946</v>
       </c>
       <c r="AB7" t="n">
-        <v>456.908682478065</v>
+        <v>513.9069094513607</v>
       </c>
       <c r="AC7" t="n">
-        <v>413.3019590977211</v>
+        <v>464.8603552861995</v>
       </c>
       <c r="AD7" t="n">
-        <v>333937.9843399713</v>
+        <v>375595.9211582946</v>
       </c>
       <c r="AE7" t="n">
-        <v>456908.682478065</v>
+        <v>513906.9094513607</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.567939388229344e-06</v>
+        <v>4.341228947198761e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>413301.9590977211</v>
+        <v>464860.3552861995</v>
       </c>
     </row>
     <row r="8">
@@ -3288,28 +3288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>329.7261163997827</v>
+        <v>371.3840532181059</v>
       </c>
       <c r="AB8" t="n">
-        <v>451.1458189477995</v>
+        <v>508.1440459210952</v>
       </c>
       <c r="AC8" t="n">
-        <v>408.0890951745545</v>
+        <v>459.6474913630328</v>
       </c>
       <c r="AD8" t="n">
-        <v>329726.1163997827</v>
+        <v>371384.0532181059</v>
       </c>
       <c r="AE8" t="n">
-        <v>451145.8189477994</v>
+        <v>508144.0459210952</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.578209651925723e-06</v>
+        <v>4.358591337548959e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.858072916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>408089.0951745544</v>
+        <v>459647.4913630328</v>
       </c>
     </row>
   </sheetData>
@@ -3585,28 +3585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>792.0074044205018</v>
+        <v>862.4707871269305</v>
       </c>
       <c r="AB2" t="n">
-        <v>1083.659471628809</v>
+        <v>1180.070580472794</v>
       </c>
       <c r="AC2" t="n">
-        <v>980.2365325821758</v>
+        <v>1067.446300511932</v>
       </c>
       <c r="AD2" t="n">
-        <v>792007.4044205018</v>
+        <v>862470.7871269305</v>
       </c>
       <c r="AE2" t="n">
-        <v>1083659.471628809</v>
+        <v>1180070.580472794</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.556770818866858e-06</v>
+        <v>2.696001704825718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>980236.5325821758</v>
+        <v>1067446.300511932</v>
       </c>
     </row>
     <row r="3">
@@ -3691,28 +3691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>441.3951687451964</v>
+        <v>491.6774157639049</v>
       </c>
       <c r="AB3" t="n">
-        <v>603.9363428576897</v>
+        <v>672.7347315248657</v>
       </c>
       <c r="AC3" t="n">
-        <v>546.2975059253318</v>
+        <v>608.5298729372574</v>
       </c>
       <c r="AD3" t="n">
-        <v>441395.1687451964</v>
+        <v>491677.4157639049</v>
       </c>
       <c r="AE3" t="n">
-        <v>603936.3428576897</v>
+        <v>672734.7315248656</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.226207383302036e-06</v>
+        <v>3.855325927194935e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.416232638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>546297.5059253318</v>
+        <v>608529.8729372574</v>
       </c>
     </row>
     <row r="4">
@@ -3797,28 +3797,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>363.5194402060797</v>
+        <v>403.7964602354995</v>
       </c>
       <c r="AB4" t="n">
-        <v>497.383335435802</v>
+        <v>552.492131136771</v>
       </c>
       <c r="AC4" t="n">
-        <v>449.9137679837039</v>
+        <v>499.763057568653</v>
       </c>
       <c r="AD4" t="n">
-        <v>363519.4402060797</v>
+        <v>403796.4602354995</v>
       </c>
       <c r="AE4" t="n">
-        <v>497383.335435802</v>
+        <v>552492.1311367711</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.477523779299775e-06</v>
+        <v>4.290553401816881e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.459201388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>449913.7679837039</v>
+        <v>499763.057568653</v>
       </c>
     </row>
     <row r="5">
@@ -3903,28 +3903,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>327.6463343481855</v>
+        <v>367.9233543776055</v>
       </c>
       <c r="AB5" t="n">
-        <v>448.3001693912958</v>
+        <v>503.4089650922648</v>
       </c>
       <c r="AC5" t="n">
-        <v>405.5150304178292</v>
+        <v>455.3643200027782</v>
       </c>
       <c r="AD5" t="n">
-        <v>327646.3343481855</v>
+        <v>367923.3543776055</v>
       </c>
       <c r="AE5" t="n">
-        <v>448300.1693912958</v>
+        <v>503408.9650922648</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.608687371061854e-06</v>
+        <v>4.517701330539633e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.033854166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>405515.0304178292</v>
+        <v>455364.3200027782</v>
       </c>
     </row>
     <row r="6">
@@ -4009,28 +4009,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>305.0105663812026</v>
+        <v>345.3728377566432</v>
       </c>
       <c r="AB6" t="n">
-        <v>417.3289130392662</v>
+        <v>472.5543533928845</v>
       </c>
       <c r="AC6" t="n">
-        <v>377.499627303606</v>
+        <v>427.4544291392672</v>
       </c>
       <c r="AD6" t="n">
-        <v>305010.5663812027</v>
+        <v>345372.8377566432</v>
       </c>
       <c r="AE6" t="n">
-        <v>417328.9130392662</v>
+        <v>472554.3533928845</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.646549026415856e-06</v>
+        <v>4.583269804810118e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.918836805555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>377499.627303606</v>
+        <v>427454.4291392672</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.283904285487</v>
+        <v>361.6901401484716</v>
       </c>
       <c r="AB2" t="n">
-        <v>432.7535913044756</v>
+        <v>494.8804063939599</v>
       </c>
       <c r="AC2" t="n">
-        <v>391.4521959238558</v>
+        <v>447.6497149767324</v>
       </c>
       <c r="AD2" t="n">
-        <v>316283.904285487</v>
+        <v>361690.1401484716</v>
       </c>
       <c r="AE2" t="n">
-        <v>432753.5913044756</v>
+        <v>494880.4063939599</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.50966598250245e-06</v>
+        <v>4.748828093213563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.318576388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>391452.1959238558</v>
+        <v>447649.7149767324</v>
       </c>
     </row>
     <row r="3">
@@ -4412,28 +4412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.0534119112315</v>
+        <v>293.4296230160756</v>
       </c>
       <c r="AB3" t="n">
-        <v>351.7118185729502</v>
+        <v>401.4833554119367</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.1449362390905</v>
+        <v>363.166347456849</v>
       </c>
       <c r="AD3" t="n">
-        <v>257053.4119112315</v>
+        <v>293429.6230160756</v>
       </c>
       <c r="AE3" t="n">
-        <v>351711.8185729502</v>
+        <v>401483.3554119366</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.788374057343614e-06</v>
+        <v>5.276203745925505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.387586805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>318144.9362390905</v>
+        <v>363166.347456849</v>
       </c>
     </row>
   </sheetData>
@@ -4709,28 +4709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>446.1045424755801</v>
+        <v>493.6730372250142</v>
       </c>
       <c r="AB2" t="n">
-        <v>610.3799157585066</v>
+        <v>675.4652288485605</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.1261132721062</v>
+        <v>610.999775428656</v>
       </c>
       <c r="AD2" t="n">
-        <v>446104.5424755801</v>
+        <v>493673.0372250142</v>
       </c>
       <c r="AE2" t="n">
-        <v>610379.9157585066</v>
+        <v>675465.2288485605</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.121707749231439e-06</v>
+        <v>3.865290737685861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.54470486111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>552126.1132721062</v>
+        <v>610999.775428656</v>
       </c>
     </row>
     <row r="3">
@@ -4815,28 +4815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.8080382742499</v>
+        <v>329.7093100441191</v>
       </c>
       <c r="AB3" t="n">
-        <v>399.2646316289008</v>
+        <v>451.1228237505366</v>
       </c>
       <c r="AC3" t="n">
-        <v>361.1593755576677</v>
+        <v>408.0682946066443</v>
       </c>
       <c r="AD3" t="n">
-        <v>291808.0382742499</v>
+        <v>329709.3100441191</v>
       </c>
       <c r="AE3" t="n">
-        <v>399264.6316289008</v>
+        <v>451122.8237505365</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.685592464973821e-06</v>
+        <v>4.892566228229352e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.331163194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>361159.3755576677</v>
+        <v>408068.2946066443</v>
       </c>
     </row>
     <row r="4">
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>276.8950502004984</v>
+        <v>314.7963219703677</v>
       </c>
       <c r="AB4" t="n">
-        <v>378.8600234317936</v>
+        <v>430.7182155534293</v>
       </c>
       <c r="AC4" t="n">
-        <v>342.702154528845</v>
+        <v>389.6110735778216</v>
       </c>
       <c r="AD4" t="n">
-        <v>276895.0502004984</v>
+        <v>314796.3219703677</v>
       </c>
       <c r="AE4" t="n">
-        <v>378860.0234317937</v>
+        <v>430718.2155534293</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.756735352862328e-06</v>
+        <v>5.022173119521181e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.116319444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>342702.154528845</v>
+        <v>389611.0735778216</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.4400274415656</v>
+        <v>287.3679364223335</v>
       </c>
       <c r="AB2" t="n">
-        <v>333.0853853614267</v>
+        <v>393.1894883916401</v>
       </c>
       <c r="AC2" t="n">
-        <v>301.2961836709057</v>
+        <v>355.6640354644541</v>
       </c>
       <c r="AD2" t="n">
-        <v>243440.0274415656</v>
+        <v>287367.9364223335</v>
       </c>
       <c r="AE2" t="n">
-        <v>333085.3853614267</v>
+        <v>393189.4883916401</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.763431011305845e-06</v>
+        <v>5.415434403395241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.791232638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>301296.1836709057</v>
+        <v>355664.0354644541</v>
       </c>
     </row>
     <row r="3">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.8336262275251</v>
+        <v>288.7615352082931</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.9921687016148</v>
+        <v>395.0962717318292</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.020986285294</v>
+        <v>357.3888380788428</v>
       </c>
       <c r="AD3" t="n">
-        <v>244833.6262275251</v>
+        <v>288761.5352082931</v>
       </c>
       <c r="AE3" t="n">
-        <v>334992.1687016148</v>
+        <v>395096.2717318292</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.767796444287088e-06</v>
+        <v>5.423989245493931e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.776041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>303020.9862852941</v>
+        <v>357388.8380788427</v>
       </c>
     </row>
   </sheetData>
@@ -5621,28 +5621,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>869.3837313560275</v>
+        <v>940.5284254401196</v>
       </c>
       <c r="AB2" t="n">
-        <v>1189.52917574462</v>
+        <v>1286.87248487286</v>
       </c>
       <c r="AC2" t="n">
-        <v>1076.002180726236</v>
+        <v>1164.05518105347</v>
       </c>
       <c r="AD2" t="n">
-        <v>869383.7313560275</v>
+        <v>940528.4254401196</v>
       </c>
       <c r="AE2" t="n">
-        <v>1189529.17574462</v>
+        <v>1286872.48487286</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.480856762398442e-06</v>
+        <v>2.547786230393812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.02777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1076002.180726236</v>
+        <v>1164055.18105347</v>
       </c>
     </row>
     <row r="3">
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>465.6365444953362</v>
+        <v>516.5150769454166</v>
       </c>
       <c r="AB3" t="n">
-        <v>637.1044626130507</v>
+        <v>706.7187153136864</v>
       </c>
       <c r="AC3" t="n">
-        <v>576.3001068829898</v>
+        <v>639.2704730100941</v>
       </c>
       <c r="AD3" t="n">
-        <v>465636.5444953362</v>
+        <v>516515.0769454166</v>
       </c>
       <c r="AE3" t="n">
-        <v>637104.4626130507</v>
+        <v>706718.7153136864</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.162753444922293e-06</v>
+        <v>3.720976657989022e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.605034722222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>576300.1068829898</v>
+        <v>639270.473010094</v>
       </c>
     </row>
     <row r="4">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>383.4104006637863</v>
+        <v>434.2035922592952</v>
       </c>
       <c r="AB4" t="n">
-        <v>524.5990250612788</v>
+        <v>594.0965106397169</v>
       </c>
       <c r="AC4" t="n">
-        <v>474.5320303887856</v>
+        <v>537.3967734839512</v>
       </c>
       <c r="AD4" t="n">
-        <v>383410.4006637863</v>
+        <v>434203.5922592952</v>
       </c>
       <c r="AE4" t="n">
-        <v>524599.0250612788</v>
+        <v>594096.510639717</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.415162421875605e-06</v>
+        <v>4.155241559388316e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.600260416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>474532.0303887856</v>
+        <v>537396.7734839511</v>
       </c>
     </row>
     <row r="5">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>345.2220987317874</v>
+        <v>385.8396733458311</v>
       </c>
       <c r="AB5" t="n">
-        <v>472.3481056089402</v>
+        <v>527.9228631167994</v>
       </c>
       <c r="AC5" t="n">
-        <v>427.2678653543521</v>
+        <v>477.5386460053234</v>
       </c>
       <c r="AD5" t="n">
-        <v>345222.0987317874</v>
+        <v>385839.6733458311</v>
       </c>
       <c r="AE5" t="n">
-        <v>472348.1056089402</v>
+        <v>527922.8631167994</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.555198194830742e-06</v>
+        <v>4.396170475105863e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.129340277777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>427267.8653543521</v>
+        <v>477538.6460053234</v>
       </c>
     </row>
     <row r="6">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>311.4582134334582</v>
+        <v>352.1610393935226</v>
       </c>
       <c r="AB6" t="n">
-        <v>426.1508681862747</v>
+        <v>481.8422703467832</v>
       </c>
       <c r="AC6" t="n">
-        <v>385.4796274330758</v>
+        <v>435.8559203347593</v>
       </c>
       <c r="AD6" t="n">
-        <v>311458.2134334582</v>
+        <v>352161.0393935225</v>
       </c>
       <c r="AE6" t="n">
-        <v>426150.8681862748</v>
+        <v>481842.2703467832</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.627274023289538e-06</v>
+        <v>4.520175583469028e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.905815972222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>385479.6274330759</v>
+        <v>435855.9203347593</v>
       </c>
     </row>
     <row r="7">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>311.2768549102622</v>
+        <v>351.9796808703265</v>
       </c>
       <c r="AB7" t="n">
-        <v>425.9027254538645</v>
+        <v>481.594127614373</v>
       </c>
       <c r="AC7" t="n">
-        <v>385.2551670947764</v>
+        <v>435.6314599964599</v>
       </c>
       <c r="AD7" t="n">
-        <v>311276.8549102622</v>
+        <v>351979.6808703265</v>
       </c>
       <c r="AE7" t="n">
-        <v>425902.7254538646</v>
+        <v>481594.127614373</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.630528443166827e-06</v>
+        <v>4.525774751708534e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.897135416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>385255.1670947764</v>
+        <v>435631.4599964598</v>
       </c>
     </row>
   </sheetData>
@@ -6448,28 +6448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.9999483815434</v>
+        <v>280.4699398217826</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.5879821272439</v>
+        <v>383.751345124634</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.4644975173198</v>
+        <v>347.1266553443338</v>
       </c>
       <c r="AD2" t="n">
-        <v>245999.9483815434</v>
+        <v>280469.9398217826</v>
       </c>
       <c r="AE2" t="n">
-        <v>336587.9821272439</v>
+        <v>383751.345124634</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.721283115817649e-06</v>
+        <v>5.455248435806914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.134114583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>304464.4975173199</v>
+        <v>347126.6553443338</v>
       </c>
     </row>
   </sheetData>
@@ -6745,28 +6745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>597.1693463031353</v>
+        <v>665.6984268041966</v>
       </c>
       <c r="AB2" t="n">
-        <v>817.0734448641548</v>
+        <v>910.8379560953654</v>
       </c>
       <c r="AC2" t="n">
-        <v>739.0931020561013</v>
+        <v>823.9088599347234</v>
       </c>
       <c r="AD2" t="n">
-        <v>597169.3463031353</v>
+        <v>665698.4268041967</v>
       </c>
       <c r="AE2" t="n">
-        <v>817073.4448641548</v>
+        <v>910837.9560953653</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.813730507320552e-06</v>
+        <v>3.212251501155899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.90755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>739093.1020561013</v>
+        <v>823908.8599347234</v>
       </c>
     </row>
     <row r="3">
@@ -6851,28 +6851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>361.2963211181952</v>
+        <v>410.2822389851984</v>
       </c>
       <c r="AB3" t="n">
-        <v>494.3415658226664</v>
+        <v>561.3662597544732</v>
       </c>
       <c r="AC3" t="n">
-        <v>447.1623005932955</v>
+        <v>507.7902518059994</v>
       </c>
       <c r="AD3" t="n">
-        <v>361296.3211181953</v>
+        <v>410282.2389851984</v>
       </c>
       <c r="AE3" t="n">
-        <v>494341.5658226664</v>
+        <v>561366.2597544731</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.436286090212978e-06</v>
+        <v>4.314843698633749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.865017361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>447162.3005932955</v>
+        <v>507790.2518059994</v>
       </c>
     </row>
     <row r="4">
@@ -6957,28 +6957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>306.9865647908495</v>
+        <v>346.1583204220887</v>
       </c>
       <c r="AB4" t="n">
-        <v>420.0325612382423</v>
+        <v>473.6290854287965</v>
       </c>
       <c r="AC4" t="n">
-        <v>379.9452431130659</v>
+        <v>428.4265902580678</v>
       </c>
       <c r="AD4" t="n">
-        <v>306986.5647908495</v>
+        <v>346158.3204220887</v>
       </c>
       <c r="AE4" t="n">
-        <v>420032.5612382423</v>
+        <v>473629.0854287965</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.661484824881387e-06</v>
+        <v>4.713687391551329e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.114149305555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>379945.243113066</v>
+        <v>428426.5902580678</v>
       </c>
     </row>
     <row r="5">
@@ -7063,28 +7063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>285.2212597061612</v>
+        <v>334.1218367185928</v>
       </c>
       <c r="AB5" t="n">
-        <v>390.2523106038803</v>
+        <v>457.1602374134893</v>
       </c>
       <c r="AC5" t="n">
-        <v>353.0071778024031</v>
+        <v>413.5295059831681</v>
       </c>
       <c r="AD5" t="n">
-        <v>285221.2597061612</v>
+        <v>334121.8367185927</v>
       </c>
       <c r="AE5" t="n">
-        <v>390252.3106038803</v>
+        <v>457160.2374134893</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.708654157728416e-06</v>
+        <v>4.797227785030309e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.973090277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>353007.1778024031</v>
+        <v>413529.5059831681</v>
       </c>
     </row>
   </sheetData>
@@ -7360,28 +7360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>718.6043303462055</v>
+        <v>788.5343313484134</v>
       </c>
       <c r="AB2" t="n">
-        <v>983.2261473652775</v>
+        <v>1078.907459830408</v>
       </c>
       <c r="AC2" t="n">
-        <v>889.3884238272996</v>
+        <v>975.938046120323</v>
       </c>
       <c r="AD2" t="n">
-        <v>718604.3303462055</v>
+        <v>788534.3313484134</v>
       </c>
       <c r="AE2" t="n">
-        <v>983226.1473652775</v>
+        <v>1078907.459830408</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.638542406190018e-06</v>
+        <v>2.857474880176175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.91449652777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>889388.4238272996</v>
+        <v>975938.046120323</v>
       </c>
     </row>
     <row r="3">
@@ -7466,28 +7466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.8974014052604</v>
+        <v>457.906257689114</v>
       </c>
       <c r="AB3" t="n">
-        <v>571.7856609348573</v>
+        <v>626.5275431685928</v>
       </c>
       <c r="AC3" t="n">
-        <v>517.215239961449</v>
+        <v>566.7326337855112</v>
       </c>
       <c r="AD3" t="n">
-        <v>417897.4014052604</v>
+        <v>457906.257689114</v>
       </c>
       <c r="AE3" t="n">
-        <v>571785.6609348573</v>
+        <v>626527.5431685928</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.292106806588214e-06</v>
+        <v>3.99723412574719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.231770833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>517215.2399614491</v>
+        <v>566732.6337855113</v>
       </c>
     </row>
     <row r="4">
@@ -7572,28 +7572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>345.1952483961272</v>
+        <v>385.1187638254092</v>
       </c>
       <c r="AB4" t="n">
-        <v>472.3113677951368</v>
+        <v>526.9364829066748</v>
       </c>
       <c r="AC4" t="n">
-        <v>427.2346337459362</v>
+        <v>476.6464045380596</v>
       </c>
       <c r="AD4" t="n">
-        <v>345195.2483961272</v>
+        <v>385118.7638254092</v>
       </c>
       <c r="AE4" t="n">
-        <v>472311.3677951368</v>
+        <v>526936.4829066747</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.535767471453959e-06</v>
+        <v>4.42215704901766e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.344184027777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>427234.6337459362</v>
+        <v>476646.4045380596</v>
       </c>
     </row>
     <row r="5">
@@ -7678,28 +7678,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>300.3420296134365</v>
+        <v>350.1823063734216</v>
       </c>
       <c r="AB5" t="n">
-        <v>410.9412150723025</v>
+        <v>479.1348805331411</v>
       </c>
       <c r="AC5" t="n">
-        <v>371.7215622654189</v>
+        <v>433.4069200050857</v>
       </c>
       <c r="AD5" t="n">
-        <v>300342.0296134365</v>
+        <v>350182.3063734216</v>
       </c>
       <c r="AE5" t="n">
-        <v>410941.2150723025</v>
+        <v>479134.8805331411</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.662814228684878e-06</v>
+        <v>4.643715500006626e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.947048611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>371721.5622654189</v>
+        <v>433406.9200050858</v>
       </c>
     </row>
     <row r="6">
@@ -7784,28 +7784,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>298.8095449207615</v>
+        <v>348.6498216807465</v>
       </c>
       <c r="AB6" t="n">
-        <v>408.8444019073314</v>
+        <v>477.03806736817</v>
       </c>
       <c r="AC6" t="n">
-        <v>369.8248660060169</v>
+        <v>431.5102237456838</v>
       </c>
       <c r="AD6" t="n">
-        <v>298809.5449207615</v>
+        <v>348649.8216807464</v>
       </c>
       <c r="AE6" t="n">
-        <v>408844.4019073314</v>
+        <v>477038.06736817</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.668859431254576e-06</v>
+        <v>4.654257805425901e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.927517361111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>369824.8660060168</v>
+        <v>431510.2237456838</v>
       </c>
     </row>
   </sheetData>
@@ -8081,28 +8081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1037.260361951134</v>
+        <v>1119.789172341337</v>
       </c>
       <c r="AB2" t="n">
-        <v>1419.225387919084</v>
+        <v>1532.144947209111</v>
       </c>
       <c r="AC2" t="n">
-        <v>1283.776508791428</v>
+        <v>1385.919183826412</v>
       </c>
       <c r="AD2" t="n">
-        <v>1037260.361951134</v>
+        <v>1119789.172341337</v>
       </c>
       <c r="AE2" t="n">
-        <v>1419225.387919084</v>
+        <v>1532144.947209111</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.335549139712507e-06</v>
+        <v>2.27034502215062e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.29296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1283776.508791428</v>
+        <v>1385919.183826412</v>
       </c>
     </row>
     <row r="3">
@@ -8187,28 +8187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>527.0209603386959</v>
+        <v>578.6228356119223</v>
       </c>
       <c r="AB3" t="n">
-        <v>721.0933284592352</v>
+        <v>791.6972907221319</v>
       </c>
       <c r="AC3" t="n">
-        <v>652.2731932519279</v>
+        <v>716.1388124497372</v>
       </c>
       <c r="AD3" t="n">
-        <v>527020.9603386959</v>
+        <v>578622.8356119222</v>
       </c>
       <c r="AE3" t="n">
-        <v>721093.3284592351</v>
+        <v>791697.290722132</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.041109840186375e-06</v>
+        <v>3.46975145094797e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.00651041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>652273.1932519278</v>
+        <v>716138.8124497372</v>
       </c>
     </row>
     <row r="4">
@@ -8293,28 +8293,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.8509838768749</v>
+        <v>471.4527696415501</v>
       </c>
       <c r="AB4" t="n">
-        <v>574.4586386584961</v>
+        <v>645.0624784518445</v>
       </c>
       <c r="AC4" t="n">
-        <v>519.6331124426915</v>
+        <v>583.4986208592744</v>
       </c>
       <c r="AD4" t="n">
-        <v>419850.9838768748</v>
+        <v>471452.7696415501</v>
       </c>
       <c r="AE4" t="n">
-        <v>574458.6386584961</v>
+        <v>645062.4784518445</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.312153566658929e-06</v>
+        <v>3.930507822154634e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.832465277777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>519633.1124426916</v>
+        <v>583498.6208592744</v>
       </c>
     </row>
     <row r="5">
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>380.3784825134634</v>
+        <v>421.6429324628403</v>
       </c>
       <c r="AB5" t="n">
-        <v>520.4506208892185</v>
+        <v>576.9104617690062</v>
       </c>
       <c r="AC5" t="n">
-        <v>470.7795440885849</v>
+        <v>521.8509369966901</v>
       </c>
       <c r="AD5" t="n">
-        <v>380378.4825134634</v>
+        <v>421642.9324628403</v>
       </c>
       <c r="AE5" t="n">
-        <v>520450.6208892185</v>
+        <v>576910.4617690062</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.451251701286163e-06</v>
+        <v>4.166965432100277e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.331163194444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>470779.544088585</v>
+        <v>521850.93699669</v>
       </c>
     </row>
     <row r="6">
@@ -8505,28 +8505,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>350.15927723791</v>
+        <v>391.4237271872868</v>
       </c>
       <c r="AB6" t="n">
-        <v>479.1033710539605</v>
+        <v>535.5632119337482</v>
       </c>
       <c r="AC6" t="n">
-        <v>433.3784177463743</v>
+        <v>484.4498106544793</v>
       </c>
       <c r="AD6" t="n">
-        <v>350159.27723791</v>
+        <v>391423.7271872868</v>
       </c>
       <c r="AE6" t="n">
-        <v>479103.3710539605</v>
+        <v>535563.2119337482</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.549693276942515e-06</v>
+        <v>4.33430958636492e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.009982638888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>433378.4177463743</v>
+        <v>484449.8106544793</v>
       </c>
     </row>
     <row r="7">
@@ -8611,28 +8611,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>323.5648353653787</v>
+        <v>364.9145366607761</v>
       </c>
       <c r="AB7" t="n">
-        <v>442.7156824199926</v>
+        <v>499.2921679524294</v>
       </c>
       <c r="AC7" t="n">
-        <v>400.4635190451905</v>
+        <v>451.6404242040078</v>
       </c>
       <c r="AD7" t="n">
-        <v>323564.8353653786</v>
+        <v>364914.5366607761</v>
       </c>
       <c r="AE7" t="n">
-        <v>442715.6824199926</v>
+        <v>499292.1679524294</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.5911027351536e-06</v>
+        <v>4.404702920854827e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.881944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>400463.5190451905</v>
+        <v>451640.4242040078</v>
       </c>
     </row>
     <row r="8">
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>323.7320144349134</v>
+        <v>365.0817157303108</v>
       </c>
       <c r="AB8" t="n">
-        <v>442.94442419835</v>
+        <v>499.5209097307869</v>
       </c>
       <c r="AC8" t="n">
-        <v>400.6704300292625</v>
+        <v>451.8473351880799</v>
       </c>
       <c r="AD8" t="n">
-        <v>323732.0144349134</v>
+        <v>365081.7157303108</v>
       </c>
       <c r="AE8" t="n">
-        <v>442944.42419835</v>
+        <v>499520.9097307869</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.596655367050086e-06</v>
+        <v>4.41414202707052e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.864583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>400670.4300292625</v>
+        <v>451847.3351880799</v>
       </c>
     </row>
   </sheetData>
@@ -9014,28 +9014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>490.680904151575</v>
+        <v>548.2444414639273</v>
       </c>
       <c r="AB2" t="n">
-        <v>671.3712603738861</v>
+        <v>750.1322316486821</v>
       </c>
       <c r="AC2" t="n">
-        <v>607.2965295592837</v>
+        <v>678.5406642773307</v>
       </c>
       <c r="AD2" t="n">
-        <v>490680.9041515749</v>
+        <v>548244.4414639273</v>
       </c>
       <c r="AE2" t="n">
-        <v>671371.2603738861</v>
+        <v>750132.2316486822</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.011054346639377e-06</v>
+        <v>3.626406882775685e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.98741319444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>607296.5295592838</v>
+        <v>678540.6642773307</v>
       </c>
     </row>
     <row r="3">
@@ -9120,28 +9120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.4814841162644</v>
+        <v>353.999410415452</v>
       </c>
       <c r="AB3" t="n">
-        <v>431.6556846286658</v>
+        <v>484.3576106821926</v>
       </c>
       <c r="AC3" t="n">
-        <v>390.4590719202635</v>
+        <v>438.1312001188595</v>
       </c>
       <c r="AD3" t="n">
-        <v>315481.4841162644</v>
+        <v>353999.410415452</v>
       </c>
       <c r="AE3" t="n">
-        <v>431655.6846286658</v>
+        <v>484357.6106821925</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.595779190338746e-06</v>
+        <v>4.680804145219019e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.511284722222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>390459.0719202635</v>
+        <v>438131.2001188595</v>
       </c>
     </row>
     <row r="4">
@@ -9226,28 +9226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>282.6369343698775</v>
+        <v>320.9842684684729</v>
       </c>
       <c r="AB4" t="n">
-        <v>386.7163226663897</v>
+        <v>439.1848369450694</v>
       </c>
       <c r="AC4" t="n">
-        <v>349.8086595908763</v>
+        <v>397.2696525068213</v>
       </c>
       <c r="AD4" t="n">
-        <v>282636.9343698775</v>
+        <v>320984.2684684729</v>
       </c>
       <c r="AE4" t="n">
-        <v>386716.3226663896</v>
+        <v>439184.8369450694</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.743309453009891e-06</v>
+        <v>4.946836120367965e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.053385416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>349808.6595908763</v>
+        <v>397269.6525068213</v>
       </c>
     </row>
   </sheetData>
@@ -9523,28 +9523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.5278146091346</v>
+        <v>401.7864171065158</v>
       </c>
       <c r="AB2" t="n">
-        <v>486.4488407284232</v>
+        <v>549.7419014508509</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.0228461045377</v>
+        <v>497.2753059439856</v>
       </c>
       <c r="AD2" t="n">
-        <v>355527.8146091346</v>
+        <v>401786.4171065158</v>
       </c>
       <c r="AE2" t="n">
-        <v>486448.8407284233</v>
+        <v>549741.901450851</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.365829452498734e-06</v>
+        <v>4.413881538159061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.728732638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>440022.8461045377</v>
+        <v>497275.3059439856</v>
       </c>
     </row>
     <row r="3">
@@ -9629,28 +9629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>263.7118225310189</v>
+        <v>300.6334531829033</v>
       </c>
       <c r="AB3" t="n">
-        <v>360.8221497314545</v>
+        <v>411.3399536567474</v>
       </c>
       <c r="AC3" t="n">
-        <v>326.3857901781515</v>
+        <v>372.0822457989975</v>
       </c>
       <c r="AD3" t="n">
-        <v>263711.8225310189</v>
+        <v>300633.4531829033</v>
       </c>
       <c r="AE3" t="n">
-        <v>360822.1497314545</v>
+        <v>411339.9536567474</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.779772714842508e-06</v>
+        <v>5.186167351734836e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.279079861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>326385.7901781515</v>
+        <v>372082.2457989975</v>
       </c>
     </row>
   </sheetData>
@@ -16971,28 +16971,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>268.2519580921919</v>
+        <v>313.0007304700837</v>
       </c>
       <c r="AB2" t="n">
-        <v>367.0341635028961</v>
+        <v>428.2614080468345</v>
       </c>
       <c r="AC2" t="n">
-        <v>332.0049380738627</v>
+        <v>387.3887403315053</v>
       </c>
       <c r="AD2" t="n">
-        <v>268251.9580921919</v>
+        <v>313000.7304700837</v>
       </c>
       <c r="AE2" t="n">
-        <v>367034.1635028961</v>
+        <v>428261.4080468345</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.672470305139172e-06</v>
+        <v>5.139259501623163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.908420138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>332004.9380738627</v>
+        <v>387388.7403315053</v>
       </c>
     </row>
     <row r="3">
@@ -17077,28 +17077,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.002116055053</v>
+        <v>286.9547474955985</v>
       </c>
       <c r="AB3" t="n">
-        <v>343.4321686181992</v>
+        <v>392.6241450734723</v>
       </c>
       <c r="AC3" t="n">
-        <v>310.6554844554566</v>
+        <v>355.1526477191078</v>
       </c>
       <c r="AD3" t="n">
-        <v>251002.116055053</v>
+        <v>286954.7474955985</v>
       </c>
       <c r="AE3" t="n">
-        <v>343432.1686181992</v>
+        <v>392624.1450734723</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.784376364962726e-06</v>
+        <v>5.354459004544287e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.550347222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>310655.4844554566</v>
+        <v>355152.6477191078</v>
       </c>
     </row>
   </sheetData>
@@ -17374,28 +17374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.1691981638491</v>
+        <v>282.1795319143653</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.6100924448537</v>
+        <v>386.0904844475857</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.2480064291759</v>
+        <v>349.2425504933055</v>
       </c>
       <c r="AD2" t="n">
-        <v>240169.1981638491</v>
+        <v>282179.5319143652</v>
       </c>
       <c r="AE2" t="n">
-        <v>328610.0924448537</v>
+        <v>386090.4844475857</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.622622750432338e-06</v>
+        <v>5.409419905232228e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.743923611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>297248.0064291759</v>
+        <v>349242.5504933055</v>
       </c>
     </row>
   </sheetData>
@@ -17671,28 +17671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>661.142370910053</v>
+        <v>720.5184753851568</v>
       </c>
       <c r="AB2" t="n">
-        <v>904.6041594219979</v>
+        <v>985.8451650536898</v>
       </c>
       <c r="AC2" t="n">
-        <v>818.2700080666735</v>
+        <v>891.7574861433443</v>
       </c>
       <c r="AD2" t="n">
-        <v>661142.370910053</v>
+        <v>720518.4753851568</v>
       </c>
       <c r="AE2" t="n">
-        <v>904604.159421998</v>
+        <v>985845.1650536899</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.723144077398186e-06</v>
+        <v>3.027496169787501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.40234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>818270.0080666735</v>
+        <v>891757.4861433443</v>
       </c>
     </row>
     <row r="3">
@@ -17777,28 +17777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>395.0582674391468</v>
+        <v>434.6992608284474</v>
       </c>
       <c r="AB3" t="n">
-        <v>540.5361502509425</v>
+        <v>594.774706243385</v>
       </c>
       <c r="AC3" t="n">
-        <v>488.9481387182433</v>
+        <v>538.0102430510586</v>
       </c>
       <c r="AD3" t="n">
-        <v>395058.2674391468</v>
+        <v>434699.2608284475</v>
       </c>
       <c r="AE3" t="n">
-        <v>540536.1502509424</v>
+        <v>594774.706243385</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.36009092232969e-06</v>
+        <v>4.146586650195864e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.055989583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>488948.1387182433</v>
+        <v>538010.2430510586</v>
       </c>
     </row>
     <row r="4">
@@ -17883,28 +17883,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>326.8523955283794</v>
+        <v>366.4080480631084</v>
       </c>
       <c r="AB4" t="n">
-        <v>447.2138672719284</v>
+        <v>501.3356561421733</v>
       </c>
       <c r="AC4" t="n">
-        <v>404.5324034480996</v>
+        <v>453.4888847489762</v>
       </c>
       <c r="AD4" t="n">
-        <v>326852.3955283794</v>
+        <v>366408.0480631083</v>
       </c>
       <c r="AE4" t="n">
-        <v>447213.8672719284</v>
+        <v>501335.6561421733</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.594957685650908e-06</v>
+        <v>4.55923828837984e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.235677083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>404532.4034480996</v>
+        <v>453488.8847489762</v>
       </c>
     </row>
     <row r="5">
@@ -17989,28 +17989,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>291.4373791779925</v>
+        <v>340.8178273197861</v>
       </c>
       <c r="AB5" t="n">
-        <v>398.7574795010763</v>
+        <v>466.3219871602988</v>
       </c>
       <c r="AC5" t="n">
-        <v>360.7006253171302</v>
+        <v>421.8168711927385</v>
       </c>
       <c r="AD5" t="n">
-        <v>291437.3791779925</v>
+        <v>340817.8273197861</v>
       </c>
       <c r="AE5" t="n">
-        <v>398757.4795010763</v>
+        <v>466321.9871602987</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.690972400216187e-06</v>
+        <v>4.727932354304107e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.940538194444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>360700.6253171302</v>
+        <v>421816.8711927385</v>
       </c>
     </row>
     <row r="6">
@@ -18095,28 +18095,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>292.8346565395274</v>
+        <v>342.2151046813211</v>
       </c>
       <c r="AB6" t="n">
-        <v>400.6692960306551</v>
+        <v>468.2338036898775</v>
       </c>
       <c r="AC6" t="n">
-        <v>362.4299807603774</v>
+        <v>423.5462266359858</v>
       </c>
       <c r="AD6" t="n">
-        <v>292834.6565395274</v>
+        <v>342215.1046813211</v>
       </c>
       <c r="AE6" t="n">
-        <v>400669.296030655</v>
+        <v>468233.8036898775</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.690381540434246e-06</v>
+        <v>4.726894236975342e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.942708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>362429.9807603774</v>
+        <v>423546.2266359858</v>
       </c>
     </row>
   </sheetData>
@@ -18392,28 +18392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>945.5700334619556</v>
+        <v>1027.547946786709</v>
       </c>
       <c r="AB2" t="n">
-        <v>1293.770635388385</v>
+        <v>1405.9364330096</v>
       </c>
       <c r="AC2" t="n">
-        <v>1170.294981765408</v>
+        <v>1271.75583308734</v>
       </c>
       <c r="AD2" t="n">
-        <v>945570.0334619556</v>
+        <v>1027547.946786709</v>
       </c>
       <c r="AE2" t="n">
-        <v>1293770.635388385</v>
+        <v>1405936.4330096</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.405587919713807e-06</v>
+        <v>2.403398700625721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.65060763888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1170294.981765408</v>
+        <v>1271755.83308734</v>
       </c>
     </row>
     <row r="3">
@@ -18498,28 +18498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>490.5255148958414</v>
+        <v>541.8150487579192</v>
       </c>
       <c r="AB3" t="n">
-        <v>671.1586499389012</v>
+        <v>741.3352529035343</v>
       </c>
       <c r="AC3" t="n">
-        <v>607.1042103658132</v>
+        <v>670.5832568369825</v>
       </c>
       <c r="AD3" t="n">
-        <v>490525.5148958414</v>
+        <v>541815.0487579191</v>
       </c>
       <c r="AE3" t="n">
-        <v>671158.6499389013</v>
+        <v>741335.2529035343</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.100885157611665e-06</v>
+        <v>3.592279491841266e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.802517361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>607104.2103658132</v>
+        <v>670583.2568369826</v>
       </c>
     </row>
     <row r="4">
@@ -18604,28 +18604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>402.3957277081414</v>
+        <v>453.5999207156475</v>
       </c>
       <c r="AB4" t="n">
-        <v>550.5755870968816</v>
+        <v>620.635422939317</v>
       </c>
       <c r="AC4" t="n">
-        <v>498.0294258020442</v>
+        <v>561.4028492412747</v>
       </c>
       <c r="AD4" t="n">
-        <v>402395.7277081414</v>
+        <v>453599.9207156475</v>
       </c>
       <c r="AE4" t="n">
-        <v>550575.5870968816</v>
+        <v>620635.422939317</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.359854198450105e-06</v>
+        <v>4.035087691544723e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.726128472222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>498029.4258020442</v>
+        <v>561402.8492412746</v>
       </c>
     </row>
     <row r="5">
@@ -18710,28 +18710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>362.2782397633911</v>
+        <v>403.2246155070329</v>
       </c>
       <c r="AB5" t="n">
-        <v>495.6850702322167</v>
+        <v>551.7097079512738</v>
       </c>
       <c r="AC5" t="n">
-        <v>448.3775828276187</v>
+        <v>499.0553077538419</v>
       </c>
       <c r="AD5" t="n">
-        <v>362278.2397633911</v>
+        <v>403224.6155070328</v>
       </c>
       <c r="AE5" t="n">
-        <v>495685.0702322167</v>
+        <v>551709.7079512738</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.504759191253439e-06</v>
+        <v>4.282859080678903e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.22265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>448377.5828276186</v>
+        <v>499055.3077538419</v>
       </c>
     </row>
     <row r="6">
@@ -18816,28 +18816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>324.2592794452066</v>
+        <v>375.3781315981412</v>
       </c>
       <c r="AB6" t="n">
-        <v>443.6658514467237</v>
+        <v>513.6089201669614</v>
       </c>
       <c r="AC6" t="n">
-        <v>401.323005273581</v>
+        <v>464.5908056808727</v>
       </c>
       <c r="AD6" t="n">
-        <v>324259.2794452066</v>
+        <v>375378.1315981412</v>
       </c>
       <c r="AE6" t="n">
-        <v>443665.8514467237</v>
+        <v>513608.9201669614</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.594719854761993e-06</v>
+        <v>4.436681789846685e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.936197916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>401323.005273581</v>
+        <v>464590.8056808727</v>
       </c>
     </row>
     <row r="7">
@@ -18922,28 +18922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>316.3429608929683</v>
+        <v>357.3745879826306</v>
       </c>
       <c r="AB7" t="n">
-        <v>432.8343951602252</v>
+        <v>488.9756775319316</v>
       </c>
       <c r="AC7" t="n">
-        <v>391.5252879730216</v>
+        <v>442.3085251499569</v>
       </c>
       <c r="AD7" t="n">
-        <v>316342.9608929683</v>
+        <v>357374.5879826306</v>
       </c>
       <c r="AE7" t="n">
-        <v>432834.3951602252</v>
+        <v>488975.6775319316</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.617589601497817e-06</v>
+        <v>4.475786508105583e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.866753472222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>391525.2879730216</v>
+        <v>442308.5251499569</v>
       </c>
     </row>
   </sheetData>
@@ -19219,28 +19219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.781919491502</v>
+        <v>294.4716513337925</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.2356183162193</v>
+        <v>402.909104527282</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.0959382524741</v>
+        <v>364.4560250776772</v>
       </c>
       <c r="AD2" t="n">
-        <v>253781.919491502</v>
+        <v>294471.6513337925</v>
       </c>
       <c r="AE2" t="n">
-        <v>347235.6183162193</v>
+        <v>402909.1045272819</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.384678721840981e-06</v>
+        <v>5.111464861178051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.09592013888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>314095.9382524741</v>
+        <v>364456.0250776772</v>
       </c>
     </row>
   </sheetData>
@@ -19516,28 +19516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.608586221859</v>
+        <v>452.4145547512353</v>
       </c>
       <c r="AB2" t="n">
-        <v>554.9715618566642</v>
+        <v>619.0135529321526</v>
       </c>
       <c r="AC2" t="n">
-        <v>502.0058549005423</v>
+        <v>559.9357682312852</v>
       </c>
       <c r="AD2" t="n">
-        <v>405608.586221859</v>
+        <v>452414.5547512353</v>
       </c>
       <c r="AE2" t="n">
-        <v>554971.5618566641</v>
+        <v>619013.5529321526</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.235403672671269e-06</v>
+        <v>4.118580455620578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.14539930555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>502005.8549005423</v>
+        <v>559935.7682312853</v>
       </c>
     </row>
     <row r="3">
@@ -19622,28 +19622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.2968896219174</v>
+        <v>308.7246141762144</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.2003731547649</v>
+        <v>422.4106370846259</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.7735305238691</v>
+        <v>382.096358738321</v>
       </c>
       <c r="AD3" t="n">
-        <v>271296.8896219174</v>
+        <v>308724.6141762144</v>
       </c>
       <c r="AE3" t="n">
-        <v>371200.3731547649</v>
+        <v>422410.6370846259</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.763606494761155e-06</v>
+        <v>5.091758520172749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.207465277777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>335773.5305238691</v>
+        <v>382096.3587383211</v>
       </c>
     </row>
     <row r="4">
@@ -19728,28 +19728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>270.4443107300442</v>
+        <v>307.8720352843412</v>
       </c>
       <c r="AB4" t="n">
-        <v>370.0338371017779</v>
+        <v>421.2441010316388</v>
       </c>
       <c r="AC4" t="n">
-        <v>334.7183270345355</v>
+        <v>381.0411552489875</v>
       </c>
       <c r="AD4" t="n">
-        <v>270444.3107300441</v>
+        <v>307872.0352843412</v>
       </c>
       <c r="AE4" t="n">
-        <v>370033.8371017778</v>
+        <v>421244.1010316388</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.773953166582861e-06</v>
+        <v>5.110821564967103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>334718.3270345355</v>
+        <v>381041.1552489875</v>
       </c>
     </row>
   </sheetData>
@@ -20025,28 +20025,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>546.553416311329</v>
+        <v>604.665409556151</v>
       </c>
       <c r="AB2" t="n">
-        <v>747.8184964321327</v>
+        <v>827.329889309902</v>
       </c>
       <c r="AC2" t="n">
-        <v>676.4477487025009</v>
+        <v>748.3706858389567</v>
       </c>
       <c r="AD2" t="n">
-        <v>546553.416311329</v>
+        <v>604665.409556151</v>
       </c>
       <c r="AE2" t="n">
-        <v>747818.4964321328</v>
+        <v>827329.889309902</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.910821220027419e-06</v>
+        <v>3.413542661131861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.42795138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>676447.7487025009</v>
+        <v>748370.6858389566</v>
       </c>
     </row>
     <row r="3">
@@ -20131,28 +20131,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>339.4415284097913</v>
+        <v>387.9250087597316</v>
       </c>
       <c r="AB3" t="n">
-        <v>464.4388742736211</v>
+        <v>530.7761110286035</v>
       </c>
       <c r="AC3" t="n">
-        <v>420.1134799569999</v>
+        <v>480.1195839409834</v>
       </c>
       <c r="AD3" t="n">
-        <v>339441.5284097913</v>
+        <v>387925.0087597315</v>
       </c>
       <c r="AE3" t="n">
-        <v>464438.8742736211</v>
+        <v>530776.1110286035</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.50942445530615e-06</v>
+        <v>4.482903655922458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.702256944444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>420113.4799569999</v>
+        <v>480119.5839409834</v>
       </c>
     </row>
     <row r="4">
@@ -20237,28 +20237,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>290.4469457742032</v>
+        <v>329.2167513917922</v>
       </c>
       <c r="AB4" t="n">
-        <v>397.4023248231739</v>
+        <v>450.4488832722688</v>
       </c>
       <c r="AC4" t="n">
-        <v>359.4748046997154</v>
+        <v>407.458674061741</v>
       </c>
       <c r="AD4" t="n">
-        <v>290446.9457742032</v>
+        <v>329216.7513917921</v>
       </c>
       <c r="AE4" t="n">
-        <v>397402.3248231739</v>
+        <v>450448.8832722688</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.719222361770456e-06</v>
+        <v>4.857692305130459e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.029513888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>359474.8046997154</v>
+        <v>407458.674061741</v>
       </c>
     </row>
     <row r="5">
@@ -20343,28 +20343,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>289.6601172742603</v>
+        <v>328.4299228918492</v>
       </c>
       <c r="AB5" t="n">
-        <v>396.3257513571285</v>
+        <v>449.3723098062233</v>
       </c>
       <c r="AC5" t="n">
-        <v>358.500977894289</v>
+        <v>406.4848472563145</v>
       </c>
       <c r="AD5" t="n">
-        <v>289660.1172742603</v>
+        <v>328429.9228918492</v>
       </c>
       <c r="AE5" t="n">
-        <v>396325.7513571286</v>
+        <v>449372.3098062233</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.726064691573609e-06</v>
+        <v>4.869915627982326e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.009982638888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>358500.977894289</v>
+        <v>406484.8472563145</v>
       </c>
     </row>
   </sheetData>
